--- a/xlsx/聖經_intext.xlsx
+++ b/xlsx/聖經_intext.xlsx
@@ -29,7 +29,7 @@
     <t>猶太教</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_聖經</t>
+    <t>体育运动_体育运动_宦官_聖經</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
